--- a/Financials/Yearly/TV_YR_FIN.xlsx
+++ b/Financials/Yearly/TV_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6081EA00-6607-4A20-9C2E-D93DA32A459B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TV" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>TV</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5006000</v>
+        <v>4875900</v>
       </c>
       <c r="E8" s="3">
-        <v>5112900</v>
+        <v>4980000</v>
       </c>
       <c r="F8" s="3">
-        <v>4675600</v>
+        <v>4554000</v>
       </c>
       <c r="G8" s="3">
-        <v>4254300</v>
+        <v>4143700</v>
       </c>
       <c r="H8" s="3">
-        <v>3918300</v>
+        <v>3816500</v>
       </c>
       <c r="I8" s="3">
-        <v>3679300</v>
+        <v>3583700</v>
       </c>
       <c r="J8" s="3">
-        <v>3323100</v>
+        <v>3236700</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2842700</v>
+        <v>2768800</v>
       </c>
       <c r="E9" s="3">
-        <v>2781300</v>
+        <v>2709000</v>
       </c>
       <c r="F9" s="3">
-        <v>2507700</v>
+        <v>2442600</v>
       </c>
       <c r="G9" s="3">
-        <v>2278400</v>
+        <v>2219200</v>
       </c>
       <c r="H9" s="3">
-        <v>2102900</v>
+        <v>2048200</v>
       </c>
       <c r="I9" s="3">
-        <v>1953900</v>
+        <v>1903100</v>
       </c>
       <c r="J9" s="3">
-        <v>1778100</v>
+        <v>1731900</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2163300</v>
+        <v>2107100</v>
       </c>
       <c r="E10" s="3">
-        <v>2331600</v>
+        <v>2271000</v>
       </c>
       <c r="F10" s="3">
-        <v>2167800</v>
+        <v>2111500</v>
       </c>
       <c r="G10" s="3">
-        <v>1975800</v>
+        <v>1924500</v>
       </c>
       <c r="H10" s="3">
-        <v>1815400</v>
+        <v>1768200</v>
       </c>
       <c r="I10" s="3">
-        <v>1725500</v>
+        <v>1680600</v>
       </c>
       <c r="J10" s="3">
-        <v>1545000</v>
+        <v>1504800</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,7 +835,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,7 +862,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,48 +889,48 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="E14" s="3">
         <v>400</v>
       </c>
       <c r="F14" s="3">
-        <v>-48200</v>
+        <v>-46900</v>
       </c>
       <c r="G14" s="3">
-        <v>13400</v>
+        <v>13100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="3">
-        <v>15700</v>
+        <v>15300</v>
       </c>
       <c r="J14" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>303300</v>
+        <v>295400</v>
       </c>
       <c r="E15" s="3">
-        <v>288200</v>
+        <v>280700</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="3">
-        <v>161000</v>
+        <v>156800</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -904,11 +939,11 @@
         <v>8</v>
       </c>
       <c r="J15" s="3">
-        <v>390900</v>
+        <v>380700</v>
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4249600</v>
+        <v>4139200</v>
       </c>
       <c r="E17" s="3">
-        <v>4231500</v>
+        <v>4121500</v>
       </c>
       <c r="F17" s="3">
-        <v>3680200</v>
+        <v>3584500</v>
       </c>
       <c r="G17" s="3">
-        <v>3513200</v>
+        <v>3421900</v>
       </c>
       <c r="H17" s="3">
-        <v>2923300</v>
+        <v>2847300</v>
       </c>
       <c r="I17" s="3">
-        <v>2716100</v>
+        <v>2645500</v>
       </c>
       <c r="J17" s="3">
-        <v>2458900</v>
+        <v>2395000</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>756300</v>
+        <v>736700</v>
       </c>
       <c r="E18" s="3">
-        <v>881400</v>
+        <v>858500</v>
       </c>
       <c r="F18" s="3">
-        <v>995400</v>
+        <v>969500</v>
       </c>
       <c r="G18" s="3">
-        <v>741100</v>
+        <v>721800</v>
       </c>
       <c r="H18" s="3">
-        <v>995000</v>
+        <v>969100</v>
       </c>
       <c r="I18" s="3">
-        <v>963200</v>
+        <v>938200</v>
       </c>
       <c r="J18" s="3">
-        <v>864100</v>
+        <v>841700</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,142 +1020,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>310900</v>
+        <v>302800</v>
       </c>
       <c r="E20" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="F20" s="3">
-        <v>326700</v>
+        <v>318200</v>
       </c>
       <c r="G20" s="3">
-        <v>65600</v>
+        <v>63900</v>
       </c>
       <c r="H20" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I20" s="3">
-        <v>18700</v>
+        <v>18200</v>
       </c>
       <c r="J20" s="3">
-        <v>-48600</v>
+        <v>-47400</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2044400</v>
+        <v>1997200</v>
       </c>
       <c r="E21" s="3">
-        <v>1782100</v>
+        <v>1741300</v>
       </c>
       <c r="F21" s="3">
-        <v>2095000</v>
+        <v>2045200</v>
       </c>
       <c r="G21" s="3">
-        <v>1416300</v>
+        <v>1383200</v>
       </c>
       <c r="H21" s="3">
-        <v>1515600</v>
+        <v>1479400</v>
       </c>
       <c r="I21" s="3">
-        <v>1428700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1203600</v>
+        <v>1394300</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>490900</v>
+        <v>478200</v>
       </c>
       <c r="E22" s="3">
-        <v>451200</v>
+        <v>439500</v>
       </c>
       <c r="F22" s="3">
-        <v>331300</v>
+        <v>322700</v>
       </c>
       <c r="G22" s="3">
-        <v>294800</v>
+        <v>287100</v>
       </c>
       <c r="H22" s="3">
-        <v>255000</v>
+        <v>248400</v>
       </c>
       <c r="I22" s="3">
-        <v>232000</v>
+        <v>226000</v>
       </c>
       <c r="J22" s="3">
-        <v>221700</v>
+        <v>215900</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>576200</v>
+        <v>561200</v>
       </c>
       <c r="E23" s="3">
-        <v>435700</v>
+        <v>424400</v>
       </c>
       <c r="F23" s="3">
-        <v>990700</v>
+        <v>965000</v>
       </c>
       <c r="G23" s="3">
-        <v>511900</v>
+        <v>498600</v>
       </c>
       <c r="H23" s="3">
-        <v>741400</v>
+        <v>722200</v>
       </c>
       <c r="I23" s="3">
-        <v>749900</v>
+        <v>730400</v>
       </c>
       <c r="J23" s="3">
-        <v>593800</v>
+        <v>578400</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>227000</v>
+        <v>221100</v>
       </c>
       <c r="E24" s="3">
-        <v>152500</v>
+        <v>148600</v>
       </c>
       <c r="F24" s="3">
-        <v>336200</v>
+        <v>327500</v>
       </c>
       <c r="G24" s="3">
-        <v>158300</v>
+        <v>154200</v>
       </c>
       <c r="H24" s="3">
-        <v>198000</v>
+        <v>192900</v>
       </c>
       <c r="I24" s="3">
-        <v>215200</v>
+        <v>209600</v>
       </c>
       <c r="J24" s="3">
-        <v>171300</v>
+        <v>166900</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>349300</v>
+        <v>340200</v>
       </c>
       <c r="E26" s="3">
-        <v>283200</v>
+        <v>275800</v>
       </c>
       <c r="F26" s="3">
-        <v>654500</v>
+        <v>637500</v>
       </c>
       <c r="G26" s="3">
-        <v>353600</v>
+        <v>344400</v>
       </c>
       <c r="H26" s="3">
-        <v>543400</v>
+        <v>529300</v>
       </c>
       <c r="I26" s="3">
-        <v>534700</v>
+        <v>520800</v>
       </c>
       <c r="J26" s="3">
-        <v>422500</v>
+        <v>411600</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>240300</v>
+        <v>234000</v>
       </c>
       <c r="E27" s="3">
-        <v>197600</v>
+        <v>192500</v>
       </c>
       <c r="F27" s="3">
-        <v>578700</v>
+        <v>563700</v>
       </c>
       <c r="G27" s="3">
-        <v>286000</v>
+        <v>278600</v>
       </c>
       <c r="H27" s="3">
-        <v>411400</v>
+        <v>400700</v>
       </c>
       <c r="I27" s="3">
-        <v>465200</v>
+        <v>453100</v>
       </c>
       <c r="J27" s="3">
-        <v>286600</v>
+        <v>279100</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,7 +1263,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1255,7 +1290,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-310900</v>
+        <v>-302800</v>
       </c>
       <c r="E32" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="F32" s="3">
-        <v>-326700</v>
+        <v>-318200</v>
       </c>
       <c r="G32" s="3">
-        <v>-65600</v>
+        <v>-63900</v>
       </c>
       <c r="H32" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="I32" s="3">
-        <v>-18700</v>
+        <v>-18200</v>
       </c>
       <c r="J32" s="3">
-        <v>48600</v>
+        <v>47400</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>240300</v>
+        <v>234000</v>
       </c>
       <c r="E33" s="3">
-        <v>197600</v>
+        <v>192500</v>
       </c>
       <c r="F33" s="3">
-        <v>578700</v>
+        <v>563700</v>
       </c>
       <c r="G33" s="3">
-        <v>286000</v>
+        <v>278600</v>
       </c>
       <c r="H33" s="3">
-        <v>411400</v>
+        <v>400700</v>
       </c>
       <c r="I33" s="3">
-        <v>465200</v>
+        <v>453100</v>
       </c>
       <c r="J33" s="3">
-        <v>286600</v>
+        <v>279100</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>240300</v>
+        <v>234000</v>
       </c>
       <c r="E35" s="3">
-        <v>197600</v>
+        <v>192500</v>
       </c>
       <c r="F35" s="3">
-        <v>578700</v>
+        <v>563700</v>
       </c>
       <c r="G35" s="3">
-        <v>286000</v>
+        <v>278600</v>
       </c>
       <c r="H35" s="3">
-        <v>411400</v>
+        <v>400700</v>
       </c>
       <c r="I35" s="3">
-        <v>465200</v>
+        <v>453100</v>
       </c>
       <c r="J35" s="3">
-        <v>286600</v>
+        <v>279100</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,250 +1510,250 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2056800</v>
+        <v>2003400</v>
       </c>
       <c r="E41" s="3">
-        <v>2524700</v>
+        <v>2459100</v>
       </c>
       <c r="F41" s="3">
-        <v>2623000</v>
+        <v>2554800</v>
       </c>
       <c r="G41" s="3">
-        <v>1578600</v>
+        <v>1537600</v>
       </c>
       <c r="H41" s="3">
-        <v>886300</v>
+        <v>863300</v>
       </c>
       <c r="I41" s="3">
-        <v>94400</v>
+        <v>91900</v>
       </c>
       <c r="J41" s="3">
-        <v>914400</v>
+        <v>890600</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>84200</v>
+        <v>82000</v>
       </c>
       <c r="E42" s="3">
-        <v>292000</v>
+        <v>284400</v>
       </c>
       <c r="F42" s="3">
-        <v>283000</v>
+        <v>275700</v>
       </c>
       <c r="G42" s="3">
-        <v>254300</v>
+        <v>247700</v>
       </c>
       <c r="H42" s="3">
-        <v>197700</v>
+        <v>192600</v>
       </c>
       <c r="I42" s="3">
-        <v>1200200</v>
+        <v>1169000</v>
       </c>
       <c r="J42" s="3">
-        <v>1102100</v>
+        <v>1073400</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2976300</v>
+        <v>2898900</v>
       </c>
       <c r="E43" s="3">
-        <v>1683100</v>
+        <v>1639400</v>
       </c>
       <c r="F43" s="3">
-        <v>1385700</v>
+        <v>1349700</v>
       </c>
       <c r="G43" s="3">
-        <v>1312400</v>
+        <v>1278300</v>
       </c>
       <c r="H43" s="3">
-        <v>1300600</v>
+        <v>1266800</v>
       </c>
       <c r="I43" s="3">
-        <v>1215700</v>
+        <v>1184100</v>
       </c>
       <c r="J43" s="3">
-        <v>1176300</v>
+        <v>1145700</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>79300</v>
+        <v>77200</v>
       </c>
       <c r="E44" s="3">
-        <v>100800</v>
+        <v>98200</v>
       </c>
       <c r="F44" s="3">
-        <v>86500</v>
+        <v>84200</v>
       </c>
       <c r="G44" s="3">
-        <v>177200</v>
+        <v>172600</v>
       </c>
       <c r="H44" s="3">
-        <v>91200</v>
+        <v>88900</v>
       </c>
       <c r="I44" s="3">
-        <v>80100</v>
+        <v>78000</v>
       </c>
       <c r="J44" s="3">
-        <v>73500</v>
+        <v>71600</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>816200</v>
+        <v>795000</v>
       </c>
       <c r="E45" s="3">
-        <v>484300</v>
+        <v>471700</v>
       </c>
       <c r="F45" s="3">
-        <v>397500</v>
+        <v>387200</v>
       </c>
       <c r="G45" s="3">
-        <v>915000</v>
+        <v>891300</v>
       </c>
       <c r="H45" s="3">
-        <v>349400</v>
+        <v>340400</v>
       </c>
       <c r="I45" s="3">
-        <v>310800</v>
+        <v>302800</v>
       </c>
       <c r="J45" s="3">
-        <v>288100</v>
+        <v>280600</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4306500</v>
+        <v>4194600</v>
       </c>
       <c r="E46" s="3">
-        <v>5084900</v>
+        <v>4952800</v>
       </c>
       <c r="F46" s="3">
-        <v>4775700</v>
+        <v>4651600</v>
       </c>
       <c r="G46" s="3">
-        <v>4237500</v>
+        <v>4127400</v>
       </c>
       <c r="H46" s="3">
-        <v>2825300</v>
+        <v>2751900</v>
       </c>
       <c r="I46" s="3">
-        <v>2901300</v>
+        <v>2825900</v>
       </c>
       <c r="J46" s="3">
-        <v>2690000</v>
+        <v>2620100</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6526300</v>
+        <v>6356700</v>
       </c>
       <c r="E47" s="3">
-        <v>3038900</v>
+        <v>2959900</v>
       </c>
       <c r="F47" s="3">
-        <v>2673800</v>
+        <v>2604300</v>
       </c>
       <c r="G47" s="3">
-        <v>2110300</v>
+        <v>2055500</v>
       </c>
       <c r="H47" s="3">
-        <v>2987800</v>
+        <v>2910100</v>
       </c>
       <c r="I47" s="3">
-        <v>2300000</v>
+        <v>2240200</v>
       </c>
       <c r="J47" s="3">
-        <v>2351000</v>
+        <v>2289900</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>73700</v>
+        <v>71800</v>
       </c>
       <c r="E48" s="3">
-        <v>4608200</v>
+        <v>4488400</v>
       </c>
       <c r="F48" s="3">
-        <v>4040300</v>
+        <v>3935300</v>
       </c>
       <c r="G48" s="3">
-        <v>3292700</v>
+        <v>3207100</v>
       </c>
       <c r="H48" s="3">
-        <v>2839600</v>
+        <v>2765800</v>
       </c>
       <c r="I48" s="3">
-        <v>2568100</v>
+        <v>2501300</v>
       </c>
       <c r="J48" s="3">
-        <v>2500400</v>
+        <v>2435400</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3492900</v>
+        <v>3402200</v>
       </c>
       <c r="E49" s="3">
-        <v>2003700</v>
+        <v>1951600</v>
       </c>
       <c r="F49" s="3">
-        <v>2023400</v>
+        <v>1970900</v>
       </c>
       <c r="G49" s="3">
-        <v>1528100</v>
+        <v>1488400</v>
       </c>
       <c r="H49" s="3">
-        <v>604400</v>
+        <v>588700</v>
       </c>
       <c r="I49" s="3">
-        <v>932600</v>
+        <v>908300</v>
       </c>
       <c r="J49" s="3">
-        <v>1821600</v>
+        <v>1774200</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2061300</v>
+        <v>2007700</v>
       </c>
       <c r="E52" s="3">
-        <v>1675100</v>
+        <v>1631500</v>
       </c>
       <c r="F52" s="3">
-        <v>1433000</v>
+        <v>1395800</v>
       </c>
       <c r="G52" s="3">
-        <v>1339200</v>
+        <v>1304400</v>
       </c>
       <c r="H52" s="3">
-        <v>1050100</v>
+        <v>1022800</v>
       </c>
       <c r="I52" s="3">
-        <v>63100</v>
+        <v>61500</v>
       </c>
       <c r="J52" s="3">
-        <v>36800</v>
+        <v>35900</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15782400</v>
+        <v>15372200</v>
       </c>
       <c r="E54" s="3">
-        <v>16410800</v>
+        <v>15984300</v>
       </c>
       <c r="F54" s="3">
-        <v>14946300</v>
+        <v>14557800</v>
       </c>
       <c r="G54" s="3">
-        <v>12507800</v>
+        <v>12182700</v>
       </c>
       <c r="H54" s="3">
-        <v>10307200</v>
+        <v>10039300</v>
       </c>
       <c r="I54" s="3">
-        <v>8765000</v>
+        <v>8537200</v>
       </c>
       <c r="J54" s="3">
-        <v>8140200</v>
+        <v>7928700</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,169 +1914,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2119700</v>
+        <v>2064600</v>
       </c>
       <c r="E57" s="3">
-        <v>1214800</v>
+        <v>1183300</v>
       </c>
       <c r="F57" s="3">
-        <v>921900</v>
+        <v>897900</v>
       </c>
       <c r="G57" s="3">
-        <v>910200</v>
+        <v>886600</v>
       </c>
       <c r="H57" s="3">
-        <v>569200</v>
+        <v>554400</v>
       </c>
       <c r="I57" s="3">
-        <v>457800</v>
+        <v>445900</v>
       </c>
       <c r="J57" s="3">
-        <v>419800</v>
+        <v>408900</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>298600</v>
+        <v>290800</v>
       </c>
       <c r="E58" s="3">
-        <v>236600</v>
+        <v>230500</v>
       </c>
       <c r="F58" s="3">
-        <v>248300</v>
+        <v>241800</v>
       </c>
       <c r="G58" s="3">
-        <v>96300</v>
+        <v>93800</v>
       </c>
       <c r="H58" s="3">
-        <v>39200</v>
+        <v>38100</v>
       </c>
       <c r="I58" s="3">
-        <v>43200</v>
+        <v>42100</v>
       </c>
       <c r="J58" s="3">
-        <v>82400</v>
+        <v>80300</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1729000</v>
+        <v>1684100</v>
       </c>
       <c r="E59" s="3">
-        <v>1597900</v>
+        <v>1556400</v>
       </c>
       <c r="F59" s="3">
-        <v>1430600</v>
+        <v>1393400</v>
       </c>
       <c r="G59" s="3">
-        <v>1349500</v>
+        <v>1314400</v>
       </c>
       <c r="H59" s="3">
-        <v>1530700</v>
+        <v>1490900</v>
       </c>
       <c r="I59" s="3">
-        <v>1423600</v>
+        <v>1386600</v>
       </c>
       <c r="J59" s="3">
-        <v>1409500</v>
+        <v>1372900</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2695600</v>
+        <v>2625600</v>
       </c>
       <c r="E60" s="3">
-        <v>3049300</v>
+        <v>2970100</v>
       </c>
       <c r="F60" s="3">
-        <v>2600700</v>
+        <v>2533100</v>
       </c>
       <c r="G60" s="3">
-        <v>2356100</v>
+        <v>2294800</v>
       </c>
       <c r="H60" s="3">
-        <v>2139000</v>
+        <v>2083400</v>
       </c>
       <c r="I60" s="3">
-        <v>1924600</v>
+        <v>1874600</v>
       </c>
       <c r="J60" s="3">
-        <v>1911700</v>
+        <v>1862000</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6878600</v>
+        <v>6699800</v>
       </c>
       <c r="E61" s="3">
-        <v>7201100</v>
+        <v>7013900</v>
       </c>
       <c r="F61" s="3">
-        <v>5985700</v>
+        <v>5830100</v>
       </c>
       <c r="G61" s="3">
-        <v>4538300</v>
+        <v>4420400</v>
       </c>
       <c r="H61" s="3">
-        <v>3411000</v>
+        <v>3322400</v>
       </c>
       <c r="I61" s="3">
-        <v>3034600</v>
+        <v>2955700</v>
       </c>
       <c r="J61" s="3">
-        <v>2920300</v>
+        <v>2844400</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1063700</v>
+        <v>1036000</v>
       </c>
       <c r="E62" s="3">
-        <v>1047700</v>
+        <v>1020400</v>
       </c>
       <c r="F62" s="3">
-        <v>1075300</v>
+        <v>1047300</v>
       </c>
       <c r="G62" s="3">
-        <v>945100</v>
+        <v>920600</v>
       </c>
       <c r="H62" s="3">
-        <v>584600</v>
+        <v>569400</v>
       </c>
       <c r="I62" s="3">
-        <v>166600</v>
+        <v>162300</v>
       </c>
       <c r="J62" s="3">
-        <v>170600</v>
+        <v>166100</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11233700</v>
+        <v>10941800</v>
       </c>
       <c r="E66" s="3">
-        <v>11961400</v>
+        <v>11650600</v>
       </c>
       <c r="F66" s="3">
-        <v>10306200</v>
+        <v>10038400</v>
       </c>
       <c r="G66" s="3">
-        <v>8429500</v>
+        <v>8210400</v>
       </c>
       <c r="H66" s="3">
-        <v>6679800</v>
+        <v>6506200</v>
       </c>
       <c r="I66" s="3">
-        <v>5544800</v>
+        <v>5400700</v>
       </c>
       <c r="J66" s="3">
-        <v>5391000</v>
+        <v>5250900</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7934000</v>
+        <v>7727800</v>
       </c>
       <c r="E72" s="3">
-        <v>3738000</v>
+        <v>3640900</v>
       </c>
       <c r="F72" s="3">
-        <v>3883700</v>
+        <v>3782800</v>
       </c>
       <c r="G72" s="3">
-        <v>3340300</v>
+        <v>3253500</v>
       </c>
       <c r="H72" s="3">
-        <v>3021300</v>
+        <v>2942800</v>
       </c>
       <c r="I72" s="3">
-        <v>2712000</v>
+        <v>2641500</v>
       </c>
       <c r="J72" s="3">
-        <v>2415700</v>
+        <v>2352900</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4548600</v>
+        <v>4430400</v>
       </c>
       <c r="E76" s="3">
-        <v>4449400</v>
+        <v>4333700</v>
       </c>
       <c r="F76" s="3">
-        <v>4640000</v>
+        <v>4519400</v>
       </c>
       <c r="G76" s="3">
-        <v>4078300</v>
+        <v>3972400</v>
       </c>
       <c r="H76" s="3">
-        <v>3627300</v>
+        <v>3533100</v>
       </c>
       <c r="I76" s="3">
-        <v>3220200</v>
+        <v>3136500</v>
       </c>
       <c r="J76" s="3">
-        <v>2749200</v>
+        <v>2677800</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>240300</v>
+        <v>234000</v>
       </c>
       <c r="E81" s="3">
-        <v>197600</v>
+        <v>192500</v>
       </c>
       <c r="F81" s="3">
-        <v>578700</v>
+        <v>563700</v>
       </c>
       <c r="G81" s="3">
-        <v>286000</v>
+        <v>278600</v>
       </c>
       <c r="H81" s="3">
-        <v>411400</v>
+        <v>400700</v>
       </c>
       <c r="I81" s="3">
-        <v>465200</v>
+        <v>453100</v>
       </c>
       <c r="J81" s="3">
-        <v>286600</v>
+        <v>279100</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>984300</v>
+        <v>958700</v>
       </c>
       <c r="E83" s="3">
-        <v>901600</v>
+        <v>878200</v>
       </c>
       <c r="F83" s="3">
-        <v>778500</v>
+        <v>758300</v>
       </c>
       <c r="G83" s="3">
-        <v>614000</v>
+        <v>598000</v>
       </c>
       <c r="H83" s="3">
-        <v>522800</v>
+        <v>509300</v>
       </c>
       <c r="I83" s="3">
-        <v>450000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>390900</v>
+        <v>438300</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1332800</v>
+        <v>1298200</v>
       </c>
       <c r="E89" s="3">
-        <v>1946500</v>
+        <v>1895900</v>
       </c>
       <c r="F89" s="3">
-        <v>1661300</v>
+        <v>1618100</v>
       </c>
       <c r="G89" s="3">
-        <v>1511400</v>
+        <v>1472100</v>
       </c>
       <c r="H89" s="3">
-        <v>1264100</v>
+        <v>1231300</v>
       </c>
       <c r="I89" s="3">
-        <v>1197700</v>
+        <v>1166600</v>
       </c>
       <c r="J89" s="3">
-        <v>1221500</v>
+        <v>1189700</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-984300</v>
+        <v>-866800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1615000</v>
+        <v>-1445100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1437800</v>
+        <v>-1320100</v>
       </c>
       <c r="G91" s="3">
-        <v>-945100</v>
+        <v>-879500</v>
       </c>
       <c r="H91" s="3">
-        <v>-833400</v>
+        <v>-769100</v>
       </c>
       <c r="I91" s="3">
-        <v>-650500</v>
+        <v>-591100</v>
       </c>
       <c r="J91" s="3">
-        <v>-538000</v>
+        <v>-500100</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-920300</v>
+        <v>-896400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1539900</v>
+        <v>-1499900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1262800</v>
+        <v>-1230000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1207500</v>
+        <v>-1176100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1340600</v>
+        <v>-1305700</v>
       </c>
       <c r="I94" s="3">
-        <v>-646100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1339800</v>
+        <v>-629300</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,34 +2862,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-57600</v>
+        <v>-56100</v>
       </c>
       <c r="E96" s="3">
-        <v>-57600</v>
+        <v>-56100</v>
       </c>
       <c r="F96" s="3">
-        <v>-57600</v>
+        <v>-56100</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-115100</v>
+        <v>-112100</v>
       </c>
       <c r="I96" s="3">
-        <v>-53200</v>
+        <v>-51900</v>
       </c>
       <c r="J96" s="3">
-        <v>-54300</v>
+        <v>-52900</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,48 +2970,48 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-874500</v>
+        <v>-851800</v>
       </c>
       <c r="E100" s="3">
-        <v>-530500</v>
+        <v>-516700</v>
       </c>
       <c r="F100" s="3">
-        <v>638900</v>
+        <v>622300</v>
       </c>
       <c r="G100" s="3">
-        <v>384000</v>
+        <v>374000</v>
       </c>
       <c r="H100" s="3">
-        <v>-49100</v>
+        <v>-47800</v>
       </c>
       <c r="I100" s="3">
-        <v>-400800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-135000</v>
+        <v>-390400</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="E101" s="3">
-        <v>25700</v>
+        <v>25000</v>
       </c>
       <c r="F101" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="G101" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="H101" s="3">
         <v>-400</v>
@@ -2984,35 +3019,35 @@
       <c r="I101" s="3">
         <v>-2800</v>
       </c>
-      <c r="J101" s="3">
-        <v>5600</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-467900</v>
+        <v>-455700</v>
       </c>
       <c r="E102" s="3">
-        <v>-98300</v>
+        <v>-95700</v>
       </c>
       <c r="F102" s="3">
-        <v>1044400</v>
+        <v>1017200</v>
       </c>
       <c r="G102" s="3">
-        <v>692300</v>
+        <v>674300</v>
       </c>
       <c r="H102" s="3">
-        <v>-125900</v>
+        <v>-122600</v>
       </c>
       <c r="I102" s="3">
-        <v>148000</v>
+        <v>144200</v>
       </c>
       <c r="J102" s="3">
-        <v>-247800</v>
+        <v>-241400</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/TV_YR_FIN.xlsx
+++ b/Financials/Yearly/TV_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6081EA00-6607-4A20-9C2E-D93DA32A459B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="TV" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>TV</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4875900</v>
+        <v>5429700</v>
       </c>
       <c r="E8" s="3">
-        <v>4980000</v>
+        <v>5054000</v>
       </c>
       <c r="F8" s="3">
-        <v>4554000</v>
+        <v>5162000</v>
       </c>
       <c r="G8" s="3">
-        <v>4143700</v>
+        <v>4720500</v>
       </c>
       <c r="H8" s="3">
-        <v>3816500</v>
+        <v>4295100</v>
       </c>
       <c r="I8" s="3">
-        <v>3583700</v>
+        <v>3955900</v>
       </c>
       <c r="J8" s="3">
+        <v>3714700</v>
+      </c>
+      <c r="K8" s="3">
         <v>3236700</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2768800</v>
+        <v>3100800</v>
       </c>
       <c r="E9" s="3">
-        <v>2709000</v>
+        <v>2870000</v>
       </c>
       <c r="F9" s="3">
-        <v>2442600</v>
+        <v>2808000</v>
       </c>
       <c r="G9" s="3">
-        <v>2219200</v>
+        <v>2531800</v>
       </c>
       <c r="H9" s="3">
-        <v>2048200</v>
+        <v>2300300</v>
       </c>
       <c r="I9" s="3">
-        <v>1903100</v>
+        <v>2123100</v>
       </c>
       <c r="J9" s="3">
+        <v>1972600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1731900</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2107100</v>
+        <v>2329000</v>
       </c>
       <c r="E10" s="3">
-        <v>2271000</v>
+        <v>2184100</v>
       </c>
       <c r="F10" s="3">
-        <v>2111500</v>
+        <v>2354000</v>
       </c>
       <c r="G10" s="3">
-        <v>1924500</v>
+        <v>2188600</v>
       </c>
       <c r="H10" s="3">
-        <v>1768200</v>
+        <v>1994800</v>
       </c>
       <c r="I10" s="3">
-        <v>1680600</v>
+        <v>1832800</v>
       </c>
       <c r="J10" s="3">
+        <v>1742000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1504800</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,63 +868,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4600</v>
+        <v>-171800</v>
       </c>
       <c r="E14" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
-        <v>-46900</v>
-      </c>
       <c r="G14" s="3">
-        <v>13100</v>
-      </c>
-      <c r="H14" s="3" t="s">
+        <v>-48600</v>
+      </c>
+      <c r="H14" s="3">
+        <v>13600</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>15300</v>
-      </c>
       <c r="J14" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K14" s="3">
         <v>7100</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>295400</v>
+        <v>328700</v>
       </c>
       <c r="E15" s="3">
-        <v>280700</v>
-      </c>
-      <c r="F15" s="3" t="s">
+        <v>306200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>291000</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
-        <v>156800</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
+      <c r="H15" s="3">
+        <v>162500</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
         <v>380700</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4139200</v>
+        <v>4344000</v>
       </c>
       <c r="E17" s="3">
-        <v>4121500</v>
+        <v>4290500</v>
       </c>
       <c r="F17" s="3">
-        <v>3584500</v>
+        <v>4272100</v>
       </c>
       <c r="G17" s="3">
-        <v>3421900</v>
+        <v>3715500</v>
       </c>
       <c r="H17" s="3">
-        <v>2847300</v>
+        <v>3546900</v>
       </c>
       <c r="I17" s="3">
-        <v>2645500</v>
+        <v>2951400</v>
       </c>
       <c r="J17" s="3">
+        <v>2742200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2395000</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>736700</v>
+        <v>1085700</v>
       </c>
       <c r="E18" s="3">
-        <v>858500</v>
+        <v>763600</v>
       </c>
       <c r="F18" s="3">
-        <v>969500</v>
+        <v>889800</v>
       </c>
       <c r="G18" s="3">
-        <v>721800</v>
+        <v>1004900</v>
       </c>
       <c r="H18" s="3">
-        <v>969100</v>
+        <v>748200</v>
       </c>
       <c r="I18" s="3">
-        <v>938200</v>
+        <v>1004600</v>
       </c>
       <c r="J18" s="3">
+        <v>972500</v>
+      </c>
+      <c r="K18" s="3">
         <v>841700</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>302800</v>
+        <v>78300</v>
       </c>
       <c r="E20" s="3">
-        <v>5500</v>
+        <v>313800</v>
       </c>
       <c r="F20" s="3">
-        <v>318200</v>
+        <v>5700</v>
       </c>
       <c r="G20" s="3">
-        <v>63900</v>
+        <v>329800</v>
       </c>
       <c r="H20" s="3">
-        <v>1400</v>
+        <v>66200</v>
       </c>
       <c r="I20" s="3">
-        <v>18200</v>
+        <v>1500</v>
       </c>
       <c r="J20" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-47400</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1997200</v>
+        <v>2254800</v>
       </c>
       <c r="E21" s="3">
-        <v>1741300</v>
+        <v>2101600</v>
       </c>
       <c r="F21" s="3">
-        <v>2045200</v>
+        <v>1827800</v>
       </c>
       <c r="G21" s="3">
-        <v>1383200</v>
+        <v>2139700</v>
       </c>
       <c r="H21" s="3">
-        <v>1479400</v>
+        <v>1447900</v>
       </c>
       <c r="I21" s="3">
-        <v>1394300</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>1545600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1447200</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>478200</v>
+        <v>520400</v>
       </c>
       <c r="E22" s="3">
-        <v>439500</v>
+        <v>495700</v>
       </c>
       <c r="F22" s="3">
-        <v>322700</v>
+        <v>455600</v>
       </c>
       <c r="G22" s="3">
-        <v>287100</v>
+        <v>334500</v>
       </c>
       <c r="H22" s="3">
-        <v>248400</v>
+        <v>297600</v>
       </c>
       <c r="I22" s="3">
-        <v>226000</v>
+        <v>257500</v>
       </c>
       <c r="J22" s="3">
+        <v>234200</v>
+      </c>
+      <c r="K22" s="3">
         <v>215900</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>561200</v>
+        <v>643600</v>
       </c>
       <c r="E23" s="3">
-        <v>424400</v>
+        <v>581800</v>
       </c>
       <c r="F23" s="3">
-        <v>965000</v>
+        <v>439900</v>
       </c>
       <c r="G23" s="3">
-        <v>498600</v>
+        <v>1000200</v>
       </c>
       <c r="H23" s="3">
-        <v>722200</v>
+        <v>516800</v>
       </c>
       <c r="I23" s="3">
-        <v>730400</v>
+        <v>748600</v>
       </c>
       <c r="J23" s="3">
+        <v>757100</v>
+      </c>
+      <c r="K23" s="3">
         <v>578400</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>221100</v>
+        <v>235400</v>
       </c>
       <c r="E24" s="3">
-        <v>148600</v>
+        <v>229100</v>
       </c>
       <c r="F24" s="3">
-        <v>327500</v>
+        <v>154000</v>
       </c>
       <c r="G24" s="3">
-        <v>154200</v>
+        <v>339500</v>
       </c>
       <c r="H24" s="3">
-        <v>192900</v>
+        <v>159800</v>
       </c>
       <c r="I24" s="3">
-        <v>209600</v>
+        <v>199900</v>
       </c>
       <c r="J24" s="3">
+        <v>217300</v>
+      </c>
+      <c r="K24" s="3">
         <v>166900</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>340200</v>
+        <v>408300</v>
       </c>
       <c r="E26" s="3">
-        <v>275800</v>
+        <v>352600</v>
       </c>
       <c r="F26" s="3">
-        <v>637500</v>
+        <v>285900</v>
       </c>
       <c r="G26" s="3">
-        <v>344400</v>
+        <v>660800</v>
       </c>
       <c r="H26" s="3">
-        <v>529300</v>
+        <v>357000</v>
       </c>
       <c r="I26" s="3">
-        <v>520800</v>
+        <v>548700</v>
       </c>
       <c r="J26" s="3">
+        <v>539800</v>
+      </c>
+      <c r="K26" s="3">
         <v>411600</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>234000</v>
+        <v>322200</v>
       </c>
       <c r="E27" s="3">
-        <v>192500</v>
+        <v>242600</v>
       </c>
       <c r="F27" s="3">
-        <v>563700</v>
+        <v>199500</v>
       </c>
       <c r="G27" s="3">
-        <v>278600</v>
+        <v>584300</v>
       </c>
       <c r="H27" s="3">
-        <v>400700</v>
+        <v>288800</v>
       </c>
       <c r="I27" s="3">
-        <v>453100</v>
+        <v>415400</v>
       </c>
       <c r="J27" s="3">
+        <v>469700</v>
+      </c>
+      <c r="K27" s="3">
         <v>279100</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1288,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-302800</v>
+        <v>-78300</v>
       </c>
       <c r="E32" s="3">
-        <v>-5500</v>
+        <v>-313800</v>
       </c>
       <c r="F32" s="3">
-        <v>-318200</v>
+        <v>-5700</v>
       </c>
       <c r="G32" s="3">
-        <v>-63900</v>
+        <v>-329800</v>
       </c>
       <c r="H32" s="3">
-        <v>-1400</v>
+        <v>-66200</v>
       </c>
       <c r="I32" s="3">
-        <v>-18200</v>
+        <v>-1500</v>
       </c>
       <c r="J32" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="K32" s="3">
         <v>47400</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>234000</v>
+        <v>322200</v>
       </c>
       <c r="E33" s="3">
-        <v>192500</v>
+        <v>242600</v>
       </c>
       <c r="F33" s="3">
-        <v>563700</v>
+        <v>199500</v>
       </c>
       <c r="G33" s="3">
-        <v>278600</v>
+        <v>584300</v>
       </c>
       <c r="H33" s="3">
-        <v>400700</v>
+        <v>288800</v>
       </c>
       <c r="I33" s="3">
-        <v>453100</v>
+        <v>415400</v>
       </c>
       <c r="J33" s="3">
+        <v>469700</v>
+      </c>
+      <c r="K33" s="3">
         <v>279100</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>234000</v>
+        <v>322200</v>
       </c>
       <c r="E35" s="3">
-        <v>192500</v>
+        <v>242600</v>
       </c>
       <c r="F35" s="3">
-        <v>563700</v>
+        <v>199500</v>
       </c>
       <c r="G35" s="3">
-        <v>278600</v>
+        <v>584300</v>
       </c>
       <c r="H35" s="3">
-        <v>400700</v>
+        <v>288800</v>
       </c>
       <c r="I35" s="3">
-        <v>453100</v>
+        <v>415400</v>
       </c>
       <c r="J35" s="3">
+        <v>469700</v>
+      </c>
+      <c r="K35" s="3">
         <v>279100</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,251 +1559,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2003400</v>
+        <v>1719200</v>
       </c>
       <c r="E41" s="3">
-        <v>2459100</v>
+        <v>2076600</v>
       </c>
       <c r="F41" s="3">
-        <v>2554800</v>
+        <v>2548900</v>
       </c>
       <c r="G41" s="3">
-        <v>1537600</v>
+        <v>2648200</v>
       </c>
       <c r="H41" s="3">
-        <v>863300</v>
+        <v>1593800</v>
       </c>
       <c r="I41" s="3">
-        <v>91900</v>
+        <v>894900</v>
       </c>
       <c r="J41" s="3">
+        <v>95300</v>
+      </c>
+      <c r="K41" s="3">
         <v>890600</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>82000</v>
+        <v>1700</v>
       </c>
       <c r="E42" s="3">
-        <v>284400</v>
+        <v>85000</v>
       </c>
       <c r="F42" s="3">
-        <v>275700</v>
+        <v>294800</v>
       </c>
       <c r="G42" s="3">
-        <v>247700</v>
+        <v>285800</v>
       </c>
       <c r="H42" s="3">
-        <v>192600</v>
+        <v>256700</v>
       </c>
       <c r="I42" s="3">
-        <v>1169000</v>
+        <v>199600</v>
       </c>
       <c r="J42" s="3">
+        <v>1211800</v>
+      </c>
+      <c r="K42" s="3">
         <v>1073400</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2898900</v>
+        <v>1519700</v>
       </c>
       <c r="E43" s="3">
-        <v>1639400</v>
+        <v>3004900</v>
       </c>
       <c r="F43" s="3">
-        <v>1349700</v>
+        <v>1699300</v>
       </c>
       <c r="G43" s="3">
-        <v>1278300</v>
+        <v>1399000</v>
       </c>
       <c r="H43" s="3">
-        <v>1266800</v>
+        <v>1325000</v>
       </c>
       <c r="I43" s="3">
-        <v>1184100</v>
+        <v>1313100</v>
       </c>
       <c r="J43" s="3">
+        <v>1227400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1145700</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>77200</v>
+        <v>55000</v>
       </c>
       <c r="E44" s="3">
-        <v>98200</v>
+        <v>80000</v>
       </c>
       <c r="F44" s="3">
-        <v>84200</v>
+        <v>101800</v>
       </c>
       <c r="G44" s="3">
-        <v>172600</v>
+        <v>87300</v>
       </c>
       <c r="H44" s="3">
-        <v>88900</v>
+        <v>178900</v>
       </c>
       <c r="I44" s="3">
-        <v>78000</v>
+        <v>92100</v>
       </c>
       <c r="J44" s="3">
+        <v>80900</v>
+      </c>
+      <c r="K44" s="3">
         <v>71600</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>795000</v>
+        <v>567200</v>
       </c>
       <c r="E45" s="3">
-        <v>471700</v>
+        <v>824000</v>
       </c>
       <c r="F45" s="3">
-        <v>387200</v>
+        <v>489000</v>
       </c>
       <c r="G45" s="3">
-        <v>891300</v>
+        <v>401300</v>
       </c>
       <c r="H45" s="3">
-        <v>340400</v>
+        <v>923800</v>
       </c>
       <c r="I45" s="3">
-        <v>302800</v>
+        <v>352800</v>
       </c>
       <c r="J45" s="3">
+        <v>313800</v>
+      </c>
+      <c r="K45" s="3">
         <v>280600</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4194600</v>
+        <v>3862800</v>
       </c>
       <c r="E46" s="3">
-        <v>4952800</v>
+        <v>4347900</v>
       </c>
       <c r="F46" s="3">
-        <v>4651600</v>
+        <v>5133800</v>
       </c>
       <c r="G46" s="3">
-        <v>4127400</v>
+        <v>4821600</v>
       </c>
       <c r="H46" s="3">
-        <v>2751900</v>
+        <v>4278200</v>
       </c>
       <c r="I46" s="3">
-        <v>2825900</v>
+        <v>2852500</v>
       </c>
       <c r="J46" s="3">
+        <v>2929100</v>
+      </c>
+      <c r="K46" s="3">
         <v>2620100</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6356700</v>
+        <v>3322600</v>
       </c>
       <c r="E47" s="3">
-        <v>2959900</v>
+        <v>6589000</v>
       </c>
       <c r="F47" s="3">
-        <v>2604300</v>
+        <v>3068000</v>
       </c>
       <c r="G47" s="3">
-        <v>2055500</v>
+        <v>2699400</v>
       </c>
       <c r="H47" s="3">
-        <v>2910100</v>
+        <v>2130600</v>
       </c>
       <c r="I47" s="3">
-        <v>2240200</v>
+        <v>3016500</v>
       </c>
       <c r="J47" s="3">
+        <v>2322000</v>
+      </c>
+      <c r="K47" s="3">
         <v>2289900</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>71800</v>
+        <v>4682400</v>
       </c>
       <c r="E48" s="3">
-        <v>4488400</v>
+        <v>74400</v>
       </c>
       <c r="F48" s="3">
-        <v>3935300</v>
+        <v>4652500</v>
       </c>
       <c r="G48" s="3">
-        <v>3207100</v>
+        <v>4079100</v>
       </c>
       <c r="H48" s="3">
-        <v>2765800</v>
+        <v>3324300</v>
       </c>
       <c r="I48" s="3">
-        <v>2501300</v>
+        <v>2866900</v>
       </c>
       <c r="J48" s="3">
+        <v>2592800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2435400</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3402200</v>
+        <v>2308600</v>
       </c>
       <c r="E49" s="3">
-        <v>1951600</v>
+        <v>3526500</v>
       </c>
       <c r="F49" s="3">
-        <v>1970900</v>
+        <v>2023000</v>
       </c>
       <c r="G49" s="3">
-        <v>1488400</v>
+        <v>2042900</v>
       </c>
       <c r="H49" s="3">
-        <v>588700</v>
+        <v>1542800</v>
       </c>
       <c r="I49" s="3">
-        <v>908300</v>
+        <v>610200</v>
       </c>
       <c r="J49" s="3">
+        <v>941500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1774200</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2007700</v>
+        <v>1754900</v>
       </c>
       <c r="E52" s="3">
-        <v>1631500</v>
+        <v>2081100</v>
       </c>
       <c r="F52" s="3">
-        <v>1395800</v>
+        <v>1691100</v>
       </c>
       <c r="G52" s="3">
-        <v>1304400</v>
+        <v>1446800</v>
       </c>
       <c r="H52" s="3">
-        <v>1022800</v>
+        <v>1352000</v>
       </c>
       <c r="I52" s="3">
-        <v>61500</v>
+        <v>1060100</v>
       </c>
       <c r="J52" s="3">
+        <v>63700</v>
+      </c>
+      <c r="K52" s="3">
         <v>35900</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15372200</v>
+        <v>15931300</v>
       </c>
       <c r="E54" s="3">
-        <v>15984300</v>
+        <v>15934000</v>
       </c>
       <c r="F54" s="3">
-        <v>14557800</v>
+        <v>16568400</v>
       </c>
       <c r="G54" s="3">
-        <v>12182700</v>
+        <v>15089800</v>
       </c>
       <c r="H54" s="3">
-        <v>10039300</v>
+        <v>12627900</v>
       </c>
       <c r="I54" s="3">
-        <v>8537200</v>
+        <v>10406200</v>
       </c>
       <c r="J54" s="3">
+        <v>8849200</v>
+      </c>
+      <c r="K54" s="3">
         <v>7928700</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2064600</v>
+        <v>1181000</v>
       </c>
       <c r="E57" s="3">
-        <v>1183300</v>
+        <v>2140100</v>
       </c>
       <c r="F57" s="3">
-        <v>897900</v>
+        <v>1226500</v>
       </c>
       <c r="G57" s="3">
-        <v>886600</v>
+        <v>930700</v>
       </c>
       <c r="H57" s="3">
-        <v>554400</v>
+        <v>919000</v>
       </c>
       <c r="I57" s="3">
-        <v>445900</v>
+        <v>574700</v>
       </c>
       <c r="J57" s="3">
+        <v>462200</v>
+      </c>
+      <c r="K57" s="3">
         <v>408900</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>290800</v>
+        <v>217000</v>
       </c>
       <c r="E58" s="3">
-        <v>230500</v>
+        <v>301400</v>
       </c>
       <c r="F58" s="3">
-        <v>241800</v>
+        <v>238900</v>
       </c>
       <c r="G58" s="3">
-        <v>93800</v>
+        <v>250700</v>
       </c>
       <c r="H58" s="3">
-        <v>38100</v>
+        <v>97300</v>
       </c>
       <c r="I58" s="3">
-        <v>42100</v>
+        <v>39500</v>
       </c>
       <c r="J58" s="3">
+        <v>43700</v>
+      </c>
+      <c r="K58" s="3">
         <v>80300</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1684100</v>
+        <v>1203700</v>
       </c>
       <c r="E59" s="3">
-        <v>1556400</v>
+        <v>1745600</v>
       </c>
       <c r="F59" s="3">
-        <v>1393400</v>
+        <v>1613200</v>
       </c>
       <c r="G59" s="3">
-        <v>1314400</v>
+        <v>1444300</v>
       </c>
       <c r="H59" s="3">
-        <v>1490900</v>
+        <v>1362400</v>
       </c>
       <c r="I59" s="3">
-        <v>1386600</v>
+        <v>1545400</v>
       </c>
       <c r="J59" s="3">
+        <v>1437300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1372900</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2625600</v>
+        <v>2601800</v>
       </c>
       <c r="E60" s="3">
-        <v>2970100</v>
+        <v>2721500</v>
       </c>
       <c r="F60" s="3">
-        <v>2533100</v>
+        <v>3078600</v>
       </c>
       <c r="G60" s="3">
-        <v>2294800</v>
+        <v>2625700</v>
       </c>
       <c r="H60" s="3">
-        <v>2083400</v>
+        <v>2378700</v>
       </c>
       <c r="I60" s="3">
-        <v>1874600</v>
+        <v>2159600</v>
       </c>
       <c r="J60" s="3">
+        <v>1943100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1862000</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6699800</v>
+        <v>6805200</v>
       </c>
       <c r="E61" s="3">
-        <v>7013900</v>
+        <v>6944700</v>
       </c>
       <c r="F61" s="3">
-        <v>5830100</v>
+        <v>7270200</v>
       </c>
       <c r="G61" s="3">
-        <v>4420400</v>
+        <v>6043200</v>
       </c>
       <c r="H61" s="3">
-        <v>3322400</v>
+        <v>4581900</v>
       </c>
       <c r="I61" s="3">
-        <v>2955700</v>
+        <v>3443800</v>
       </c>
       <c r="J61" s="3">
+        <v>3063700</v>
+      </c>
+      <c r="K61" s="3">
         <v>2844400</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1036000</v>
+        <v>920500</v>
       </c>
       <c r="E62" s="3">
-        <v>1020400</v>
+        <v>1073900</v>
       </c>
       <c r="F62" s="3">
-        <v>1047300</v>
+        <v>1057700</v>
       </c>
       <c r="G62" s="3">
-        <v>920600</v>
+        <v>1085600</v>
       </c>
       <c r="H62" s="3">
-        <v>569400</v>
+        <v>954200</v>
       </c>
       <c r="I62" s="3">
-        <v>162300</v>
+        <v>590200</v>
       </c>
       <c r="J62" s="3">
+        <v>168200</v>
+      </c>
+      <c r="K62" s="3">
         <v>166100</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10941800</v>
+        <v>11132300</v>
       </c>
       <c r="E66" s="3">
-        <v>11650600</v>
+        <v>11341600</v>
       </c>
       <c r="F66" s="3">
-        <v>10038400</v>
+        <v>12076300</v>
       </c>
       <c r="G66" s="3">
-        <v>8210400</v>
+        <v>10405200</v>
       </c>
       <c r="H66" s="3">
-        <v>6506200</v>
+        <v>8510400</v>
       </c>
       <c r="I66" s="3">
-        <v>5400700</v>
+        <v>6744000</v>
       </c>
       <c r="J66" s="3">
+        <v>5598100</v>
+      </c>
+      <c r="K66" s="3">
         <v>5250900</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7727800</v>
+        <v>4209000</v>
       </c>
       <c r="E72" s="3">
-        <v>3640900</v>
+        <v>8010200</v>
       </c>
       <c r="F72" s="3">
-        <v>3782800</v>
+        <v>3773900</v>
       </c>
       <c r="G72" s="3">
-        <v>3253500</v>
+        <v>3921000</v>
       </c>
       <c r="H72" s="3">
-        <v>2942800</v>
+        <v>3372400</v>
       </c>
       <c r="I72" s="3">
-        <v>2641500</v>
+        <v>3050300</v>
       </c>
       <c r="J72" s="3">
+        <v>2738000</v>
+      </c>
+      <c r="K72" s="3">
         <v>2352900</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4430400</v>
+        <v>4799000</v>
       </c>
       <c r="E76" s="3">
-        <v>4333700</v>
+        <v>4592300</v>
       </c>
       <c r="F76" s="3">
-        <v>4519400</v>
+        <v>4492100</v>
       </c>
       <c r="G76" s="3">
-        <v>3972400</v>
+        <v>4684600</v>
       </c>
       <c r="H76" s="3">
-        <v>3533100</v>
+        <v>4117500</v>
       </c>
       <c r="I76" s="3">
-        <v>3136500</v>
+        <v>3662200</v>
       </c>
       <c r="J76" s="3">
+        <v>3251100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2677800</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>234000</v>
+        <v>322200</v>
       </c>
       <c r="E81" s="3">
-        <v>192500</v>
+        <v>242600</v>
       </c>
       <c r="F81" s="3">
-        <v>563700</v>
+        <v>199500</v>
       </c>
       <c r="G81" s="3">
-        <v>278600</v>
+        <v>584300</v>
       </c>
       <c r="H81" s="3">
-        <v>400700</v>
+        <v>288800</v>
       </c>
       <c r="I81" s="3">
-        <v>453100</v>
+        <v>415400</v>
       </c>
       <c r="J81" s="3">
+        <v>469700</v>
+      </c>
+      <c r="K81" s="3">
         <v>279100</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>958700</v>
+        <v>1087200</v>
       </c>
       <c r="E83" s="3">
-        <v>878200</v>
+        <v>1020800</v>
       </c>
       <c r="F83" s="3">
-        <v>758300</v>
+        <v>929200</v>
       </c>
       <c r="G83" s="3">
-        <v>598000</v>
+        <v>802300</v>
       </c>
       <c r="H83" s="3">
-        <v>509300</v>
+        <v>631300</v>
       </c>
       <c r="I83" s="3">
-        <v>438300</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>537800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>454300</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1298200</v>
+        <v>1807400</v>
       </c>
       <c r="E89" s="3">
-        <v>1895900</v>
+        <v>1345600</v>
       </c>
       <c r="F89" s="3">
-        <v>1618100</v>
+        <v>1965200</v>
       </c>
       <c r="G89" s="3">
-        <v>1472100</v>
+        <v>1677200</v>
       </c>
       <c r="H89" s="3">
-        <v>1231300</v>
+        <v>1525900</v>
       </c>
       <c r="I89" s="3">
-        <v>1166600</v>
+        <v>1276300</v>
       </c>
       <c r="J89" s="3">
+        <v>1209200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1189700</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-866800</v>
+        <v>-991800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1445100</v>
+        <v>-898500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1320100</v>
+        <v>-1497900</v>
       </c>
       <c r="G91" s="3">
-        <v>-879500</v>
+        <v>-1368300</v>
       </c>
       <c r="H91" s="3">
-        <v>-769100</v>
+        <v>-911600</v>
       </c>
       <c r="I91" s="3">
-        <v>-591100</v>
+        <v>-797200</v>
       </c>
       <c r="J91" s="3">
+        <v>-612700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-500100</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-896400</v>
+        <v>-1281200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1499900</v>
+        <v>-929100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1230000</v>
+        <v>-1554700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1176100</v>
+        <v>-1274900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1305700</v>
+        <v>-1219100</v>
       </c>
       <c r="I94" s="3">
-        <v>-629300</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-1353500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-652300</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-56100</v>
+        <v>-57300</v>
       </c>
       <c r="E96" s="3">
-        <v>-56100</v>
+        <v>-58100</v>
       </c>
       <c r="F96" s="3">
-        <v>-56100</v>
+        <v>-58100</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-58100</v>
       </c>
       <c r="H96" s="3">
-        <v>-112100</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-51900</v>
+        <v>-116200</v>
       </c>
       <c r="J96" s="3">
+        <v>-53800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-52900</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-851800</v>
+        <v>-884800</v>
       </c>
       <c r="E100" s="3">
-        <v>-516700</v>
+        <v>-882900</v>
       </c>
       <c r="F100" s="3">
-        <v>622300</v>
+        <v>-535600</v>
       </c>
       <c r="G100" s="3">
-        <v>374000</v>
+        <v>645100</v>
       </c>
       <c r="H100" s="3">
-        <v>-47800</v>
+        <v>387600</v>
       </c>
       <c r="I100" s="3">
-        <v>-390400</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-49500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-404600</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5700</v>
+        <v>1200</v>
       </c>
       <c r="E101" s="3">
-        <v>25000</v>
+        <v>-5900</v>
       </c>
       <c r="F101" s="3">
-        <v>6800</v>
+        <v>25900</v>
       </c>
       <c r="G101" s="3">
-        <v>4300</v>
+        <v>7000</v>
       </c>
       <c r="H101" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-455700</v>
+        <v>-357400</v>
       </c>
       <c r="E102" s="3">
-        <v>-95700</v>
+        <v>-472400</v>
       </c>
       <c r="F102" s="3">
-        <v>1017200</v>
+        <v>-99200</v>
       </c>
       <c r="G102" s="3">
-        <v>674300</v>
+        <v>1054400</v>
       </c>
       <c r="H102" s="3">
-        <v>-122600</v>
+        <v>698900</v>
       </c>
       <c r="I102" s="3">
-        <v>144200</v>
+        <v>-127100</v>
       </c>
       <c r="J102" s="3">
+        <v>149400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-241400</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
